--- a/medicine/Psychotrope/Balblair/Balblair.xlsx
+++ b/medicine/Psychotrope/Balblair/Balblair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Balblair est une distillerie de whisky située à Edderton dans le Ross-shire en Écosse, à proximité de l’estuaire du Dornoch, juste un peu à l’ouest de Glenmorangie. Elle est la deuxième plus ancienne distillerie écossaise toujours en activité.
@@ -519,7 +531,9 @@
           <t>Versions actuellement disponibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Balblair 1997
 Balblair 1989
@@ -558,8 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
-Dans le film La part des anges (Angel's share) de Ken Loach, sorti en 2012, la distillerie où est filmée la vente de whisky est celle de Balblair.
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le film La part des anges (Angel's share) de Ken Loach, sorti en 2012, la distillerie où est filmée la vente de whisky est celle de Balblair.
  Portail de l’Écosse   Portail du whisky                    </t>
         </is>
       </c>
